--- a/CIRCLE/Circle Data Model.xlsx
+++ b/CIRCLE/Circle Data Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coder\Documents\Saanika Web Dev\WebDevelopment\CIRCLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E3B77-047F-4E62-A1DB-120D6D3636A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ACD35F-7366-4255-A0D5-E130AC2FA214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40E7B178-6385-408C-8271-A47BFF723E29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>USER</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Account Type</t>
-  </si>
-  <si>
     <t>ISBN</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>Not Needed</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>ARRAY ( My Item Requests )</t>
   </si>
   <si>
-    <t>Item Id</t>
-  </si>
-  <si>
     <t>Auto Generated</t>
   </si>
   <si>
@@ -168,6 +156,36 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Bid Date</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>user/admin</t>
+  </si>
+  <si>
+    <t>PasswordConfirm</t>
+  </si>
+  <si>
+    <t>PasswordChangedAt</t>
+  </si>
+  <si>
+    <t>vendor email</t>
+  </si>
+  <si>
+    <t>Bid Price</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -395,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -416,6 +434,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5277229-0038-4F76-A04A-D00C22487019}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,29 +769,29 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -811,176 +830,188 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
+      <c r="F3" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
       <c r="G4" s="8"/>
       <c r="H4" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="8"/>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="13" t="s">
-        <v>26</v>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="8"/>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -992,30 +1023,28 @@
       <c r="F9" s="1"/>
       <c r="G9" s="8"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1025,12 +1054,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1064,7 +1097,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1073,7 +1106,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
       <c r="H14" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1083,7 +1116,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1092,78 +1125,83 @@
       <c r="F15" s="3"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
+      <c r="A16" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="13" t="s">
-        <v>30</v>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1171,43 +1209,51 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>40</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1215,18 +1261,26 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1234,17 +1288,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -1255,10 +1307,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1275,11 +1327,17 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8"/>
       <c r="H24" s="2"/>
